--- a/Model/BayesLSTM/Multivariate/result/Service/JPN.xlsx
+++ b/Model/BayesLSTM/Multivariate/result/Service/JPN.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>2002</v>
       </c>
       <c r="B2" t="n">
-        <v>70.49313354492188</v>
+        <v>72.58051300048828</v>
       </c>
       <c r="C2" t="n">
-        <v>69.15439605712891</v>
+        <v>71.12622833251953</v>
       </c>
       <c r="D2" t="n">
-        <v>71.83187103271484</v>
+        <v>74.03479766845703</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>2003</v>
       </c>
       <c r="B3" t="n">
-        <v>70.81288146972656</v>
+        <v>72.00821685791016</v>
       </c>
       <c r="C3" t="n">
-        <v>69.20502471923828</v>
+        <v>69.92253112792969</v>
       </c>
       <c r="D3" t="n">
-        <v>72.42073822021484</v>
+        <v>74.09390258789062</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2004</v>
       </c>
       <c r="B4" t="n">
-        <v>70.23657989501953</v>
+        <v>72.01924133300781</v>
       </c>
       <c r="C4" t="n">
-        <v>68.94113922119141</v>
+        <v>70.39459228515625</v>
       </c>
       <c r="D4" t="n">
-        <v>71.53202056884766</v>
+        <v>73.64389038085938</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2005</v>
       </c>
       <c r="B5" t="n">
-        <v>70.19587707519531</v>
+        <v>72.41911315917969</v>
       </c>
       <c r="C5" t="n">
-        <v>68.22209930419922</v>
+        <v>71.16183471679688</v>
       </c>
       <c r="D5" t="n">
-        <v>72.16965484619141</v>
+        <v>73.6763916015625</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>2006</v>
       </c>
       <c r="B6" t="n">
-        <v>71.10507202148438</v>
+        <v>72.12690734863281</v>
       </c>
       <c r="C6" t="n">
-        <v>69.20707702636719</v>
+        <v>71.03038787841797</v>
       </c>
       <c r="D6" t="n">
-        <v>73.00306701660156</v>
+        <v>73.22342681884766</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>2007</v>
       </c>
       <c r="B7" t="n">
-        <v>70.22869873046875</v>
+        <v>72.04531097412109</v>
       </c>
       <c r="C7" t="n">
-        <v>69.07238006591797</v>
+        <v>70.15910339355469</v>
       </c>
       <c r="D7" t="n">
-        <v>71.38501739501953</v>
+        <v>73.9315185546875</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>2008</v>
       </c>
       <c r="B8" t="n">
-        <v>70.83677673339844</v>
+        <v>72.55577087402344</v>
       </c>
       <c r="C8" t="n">
-        <v>69.17267608642578</v>
+        <v>70.66463470458984</v>
       </c>
       <c r="D8" t="n">
-        <v>72.50087738037109</v>
+        <v>74.44690704345703</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>2009</v>
       </c>
       <c r="B9" t="n">
-        <v>70.48014831542969</v>
+        <v>72.42679595947266</v>
       </c>
       <c r="C9" t="n">
-        <v>68.33950805664062</v>
+        <v>70.7947998046875</v>
       </c>
       <c r="D9" t="n">
-        <v>72.62078857421875</v>
+        <v>74.05879211425781</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>2010</v>
       </c>
       <c r="B10" t="n">
-        <v>70.34063720703125</v>
+        <v>72.27681732177734</v>
       </c>
       <c r="C10" t="n">
-        <v>68.42465972900391</v>
+        <v>69.98883819580078</v>
       </c>
       <c r="D10" t="n">
-        <v>72.25661468505859</v>
+        <v>74.56479644775391</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>2011</v>
       </c>
       <c r="B11" t="n">
-        <v>70.41797637939453</v>
+        <v>71.90711212158203</v>
       </c>
       <c r="C11" t="n">
-        <v>68.98944854736328</v>
+        <v>70.219482421875</v>
       </c>
       <c r="D11" t="n">
-        <v>71.84650421142578</v>
+        <v>73.59474182128906</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>2012</v>
       </c>
       <c r="B12" t="n">
-        <v>70.59471130371094</v>
+        <v>72.37791442871094</v>
       </c>
       <c r="C12" t="n">
-        <v>69.17058563232422</v>
+        <v>70.77626037597656</v>
       </c>
       <c r="D12" t="n">
-        <v>72.01883697509766</v>
+        <v>73.97956848144531</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>2013</v>
       </c>
       <c r="B13" t="n">
-        <v>70.09145355224609</v>
+        <v>72.25480651855469</v>
       </c>
       <c r="C13" t="n">
-        <v>68.45684814453125</v>
+        <v>71.23650360107422</v>
       </c>
       <c r="D13" t="n">
-        <v>71.72605895996094</v>
+        <v>73.27310943603516</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2014</v>
       </c>
       <c r="B14" t="n">
-        <v>70.74669647216797</v>
+        <v>72.23417663574219</v>
       </c>
       <c r="C14" t="n">
-        <v>68.88233184814453</v>
+        <v>71.16909027099609</v>
       </c>
       <c r="D14" t="n">
-        <v>72.61106109619141</v>
+        <v>73.29926300048828</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2015</v>
       </c>
       <c r="B15" t="n">
-        <v>70.51190948486328</v>
+        <v>72.12529754638672</v>
       </c>
       <c r="C15" t="n">
-        <v>69.85121917724609</v>
+        <v>70.31822204589844</v>
       </c>
       <c r="D15" t="n">
-        <v>71.17259979248047</v>
+        <v>73.932373046875</v>
       </c>
     </row>
     <row r="16">
@@ -659,83 +659,13 @@
         <v>2016</v>
       </c>
       <c r="B16" t="n">
-        <v>70.63783264160156</v>
+        <v>72.03466033935547</v>
       </c>
       <c r="C16" t="n">
-        <v>69.37253570556641</v>
+        <v>70.77500152587891</v>
       </c>
       <c r="D16" t="n">
-        <v>71.90312957763672</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B17" t="n">
-        <v>70.83293151855469</v>
-      </c>
-      <c r="C17" t="n">
-        <v>69.64378356933594</v>
-      </c>
-      <c r="D17" t="n">
-        <v>72.02207946777344</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B18" t="n">
-        <v>70.98313903808594</v>
-      </c>
-      <c r="C18" t="n">
-        <v>69.43507385253906</v>
-      </c>
-      <c r="D18" t="n">
-        <v>72.53120422363281</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B19" t="n">
-        <v>70.25239562988281</v>
-      </c>
-      <c r="C19" t="n">
-        <v>68.51634216308594</v>
-      </c>
-      <c r="D19" t="n">
-        <v>71.98844909667969</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B20" t="n">
-        <v>70.51828002929688</v>
-      </c>
-      <c r="C20" t="n">
-        <v>69.71366119384766</v>
-      </c>
-      <c r="D20" t="n">
-        <v>71.32289886474609</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B21" t="n">
-        <v>71.23567199707031</v>
-      </c>
-      <c r="C21" t="n">
-        <v>70.35420989990234</v>
-      </c>
-      <c r="D21" t="n">
-        <v>72.11713409423828</v>
+        <v>73.29431915283203</v>
       </c>
     </row>
   </sheetData>
@@ -781,72 +711,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>68.53838806152343</v>
+        <v>72.67091369628906</v>
       </c>
       <c r="C2" t="n">
-        <v>66.59235411551003</v>
+        <v>70.99051666259766</v>
       </c>
       <c r="D2" t="n">
-        <v>70.48442200753684</v>
+        <v>74.35131072998047</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>67.60669784545898</v>
+        <v>72.57099151611328</v>
       </c>
       <c r="C3" t="n">
-        <v>66.88037386624082</v>
+        <v>71.63015747070312</v>
       </c>
       <c r="D3" t="n">
-        <v>68.33302182467715</v>
+        <v>73.51182556152344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>67.58627166748047</v>
+        <v>72.05071258544922</v>
       </c>
       <c r="C4" t="n">
-        <v>65.68098402854947</v>
+        <v>70.76310729980469</v>
       </c>
       <c r="D4" t="n">
-        <v>69.49155930641147</v>
+        <v>73.33831787109375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>71.09055709838867</v>
+        <v>72.22262573242188</v>
       </c>
       <c r="C5" t="n">
-        <v>69.5531027686054</v>
+        <v>70.18485260009766</v>
       </c>
       <c r="D5" t="n">
-        <v>72.62801142817194</v>
+        <v>74.26039886474609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>70.72476425170899</v>
+        <v>72.48522186279297</v>
       </c>
       <c r="C6" t="n">
-        <v>68.71155179361499</v>
+        <v>70.75185394287109</v>
       </c>
       <c r="D6" t="n">
-        <v>72.73797670980299</v>
+        <v>74.21858978271484</v>
       </c>
     </row>
   </sheetData>
@@ -895,13 +825,13 @@
         <v>2002</v>
       </c>
       <c r="B2" t="n">
-        <v>68.23597717285156</v>
+        <v>69.33314514160156</v>
       </c>
       <c r="C2" t="n">
-        <v>65.97278594970703</v>
+        <v>67.91925048828125</v>
       </c>
       <c r="D2" t="n">
-        <v>70.49916839599609</v>
+        <v>70.74703979492188</v>
       </c>
     </row>
     <row r="3">
@@ -909,13 +839,13 @@
         <v>2003</v>
       </c>
       <c r="B3" t="n">
-        <v>68.40522766113281</v>
+        <v>68.45200347900391</v>
       </c>
       <c r="C3" t="n">
-        <v>66.08101654052734</v>
+        <v>66.42707824707031</v>
       </c>
       <c r="D3" t="n">
-        <v>70.72943878173828</v>
+        <v>70.4769287109375</v>
       </c>
     </row>
     <row r="4">
@@ -923,13 +853,13 @@
         <v>2004</v>
       </c>
       <c r="B4" t="n">
-        <v>68.48756408691406</v>
+        <v>68.40172576904297</v>
       </c>
       <c r="C4" t="n">
-        <v>66.65248870849609</v>
+        <v>66.30217742919922</v>
       </c>
       <c r="D4" t="n">
-        <v>70.32263946533203</v>
+        <v>70.50127410888672</v>
       </c>
     </row>
     <row r="5">
@@ -937,13 +867,13 @@
         <v>2005</v>
       </c>
       <c r="B5" t="n">
-        <v>67.72776794433594</v>
+        <v>68.0335693359375</v>
       </c>
       <c r="C5" t="n">
-        <v>66.27557373046875</v>
+        <v>65.79325866699219</v>
       </c>
       <c r="D5" t="n">
-        <v>69.17996215820312</v>
+        <v>70.27388000488281</v>
       </c>
     </row>
     <row r="6">
@@ -951,13 +881,13 @@
         <v>2006</v>
       </c>
       <c r="B6" t="n">
-        <v>68.10050201416016</v>
+        <v>68.25289154052734</v>
       </c>
       <c r="C6" t="n">
-        <v>66.27529907226562</v>
+        <v>66.46867370605469</v>
       </c>
       <c r="D6" t="n">
-        <v>69.92570495605469</v>
+        <v>70.037109375</v>
       </c>
     </row>
     <row r="7">
@@ -965,13 +895,13 @@
         <v>2007</v>
       </c>
       <c r="B7" t="n">
-        <v>67.85890197753906</v>
+        <v>67.78655242919922</v>
       </c>
       <c r="C7" t="n">
-        <v>66.26682281494141</v>
+        <v>66.39871215820312</v>
       </c>
       <c r="D7" t="n">
-        <v>69.45098114013672</v>
+        <v>69.17439270019531</v>
       </c>
     </row>
     <row r="8">
@@ -979,13 +909,13 @@
         <v>2008</v>
       </c>
       <c r="B8" t="n">
-        <v>67.92472839355469</v>
+        <v>67.78499603271484</v>
       </c>
       <c r="C8" t="n">
-        <v>66.07882690429688</v>
+        <v>65.99374389648438</v>
       </c>
       <c r="D8" t="n">
-        <v>69.7706298828125</v>
+        <v>69.57624816894531</v>
       </c>
     </row>
     <row r="9">
@@ -993,13 +923,13 @@
         <v>2009</v>
       </c>
       <c r="B9" t="n">
-        <v>67.79497528076172</v>
+        <v>67.61312866210938</v>
       </c>
       <c r="C9" t="n">
-        <v>65.94228363037109</v>
+        <v>65.45295715332031</v>
       </c>
       <c r="D9" t="n">
-        <v>69.64766693115234</v>
+        <v>69.77330017089844</v>
       </c>
     </row>
     <row r="10">
@@ -1007,13 +937,13 @@
         <v>2010</v>
       </c>
       <c r="B10" t="n">
-        <v>68.13749694824219</v>
+        <v>67.81484222412109</v>
       </c>
       <c r="C10" t="n">
-        <v>64.99234008789062</v>
+        <v>65.80658721923828</v>
       </c>
       <c r="D10" t="n">
-        <v>71.28265380859375</v>
+        <v>69.82309722900391</v>
       </c>
     </row>
     <row r="11">
@@ -1021,13 +951,13 @@
         <v>2011</v>
       </c>
       <c r="B11" t="n">
-        <v>67.97801971435547</v>
+        <v>67.64285278320312</v>
       </c>
       <c r="C11" t="n">
-        <v>64.86542510986328</v>
+        <v>65.32166290283203</v>
       </c>
       <c r="D11" t="n">
-        <v>71.09061431884766</v>
+        <v>69.96404266357422</v>
       </c>
     </row>
     <row r="12">
@@ -1035,13 +965,13 @@
         <v>2012</v>
       </c>
       <c r="B12" t="n">
-        <v>67.77476501464844</v>
+        <v>67.95243072509766</v>
       </c>
       <c r="C12" t="n">
-        <v>65.79599761962891</v>
+        <v>65.30081939697266</v>
       </c>
       <c r="D12" t="n">
-        <v>69.75353240966797</v>
+        <v>70.60404205322266</v>
       </c>
     </row>
     <row r="13">
@@ -1049,13 +979,13 @@
         <v>2013</v>
       </c>
       <c r="B13" t="n">
-        <v>68.12818908691406</v>
+        <v>68.47338104248047</v>
       </c>
       <c r="C13" t="n">
-        <v>65.82049560546875</v>
+        <v>66.14482879638672</v>
       </c>
       <c r="D13" t="n">
-        <v>70.43588256835938</v>
+        <v>70.80193328857422</v>
       </c>
     </row>
     <row r="14">
@@ -1063,13 +993,13 @@
         <v>2014</v>
       </c>
       <c r="B14" t="n">
-        <v>68.1494140625</v>
+        <v>68.78929901123047</v>
       </c>
       <c r="C14" t="n">
-        <v>65.81255340576172</v>
+        <v>66.77688598632812</v>
       </c>
       <c r="D14" t="n">
-        <v>70.48627471923828</v>
+        <v>70.80171203613281</v>
       </c>
     </row>
     <row r="15">
@@ -1077,13 +1007,13 @@
         <v>2015</v>
       </c>
       <c r="B15" t="n">
-        <v>67.76891326904297</v>
+        <v>68.90727233886719</v>
       </c>
       <c r="C15" t="n">
-        <v>65.10505676269531</v>
+        <v>67.12155151367188</v>
       </c>
       <c r="D15" t="n">
-        <v>70.43276977539062</v>
+        <v>70.6929931640625</v>
       </c>
     </row>
     <row r="16">
@@ -1091,13 +1021,13 @@
         <v>2016</v>
       </c>
       <c r="B16" t="n">
-        <v>69.16658020019531</v>
+        <v>68.86540985107422</v>
       </c>
       <c r="C16" t="n">
-        <v>66.75582122802734</v>
+        <v>66.40803527832031</v>
       </c>
       <c r="D16" t="n">
-        <v>71.57733917236328</v>
+        <v>71.32278442382812</v>
       </c>
     </row>
     <row r="17">
@@ -1105,13 +1035,13 @@
         <v>2017</v>
       </c>
       <c r="B17" t="n">
-        <v>68.43232727050781</v>
+        <v>68.48699188232422</v>
       </c>
       <c r="C17" t="n">
-        <v>65.15432739257812</v>
+        <v>65.87554931640625</v>
       </c>
       <c r="D17" t="n">
-        <v>71.7103271484375</v>
+        <v>71.09843444824219</v>
       </c>
     </row>
     <row r="18">
@@ -1119,13 +1049,13 @@
         <v>2018</v>
       </c>
       <c r="B18" t="n">
-        <v>67.11935424804688</v>
+        <v>68.31825256347656</v>
       </c>
       <c r="C18" t="n">
-        <v>65.73326110839844</v>
+        <v>65.58564758300781</v>
       </c>
       <c r="D18" t="n">
-        <v>68.50544738769531</v>
+        <v>71.05085754394531</v>
       </c>
     </row>
     <row r="19">
@@ -1133,13 +1063,13 @@
         <v>2019</v>
       </c>
       <c r="B19" t="n">
-        <v>67.83946990966797</v>
+        <v>68.67216491699219</v>
       </c>
       <c r="C19" t="n">
-        <v>65.36759185791016</v>
+        <v>65.71360778808594</v>
       </c>
       <c r="D19" t="n">
-        <v>70.31134796142578</v>
+        <v>71.63072204589844</v>
       </c>
     </row>
     <row r="20">
@@ -1147,13 +1077,13 @@
         <v>2020</v>
       </c>
       <c r="B20" t="n">
-        <v>67.63287353515625</v>
+        <v>68.74220275878906</v>
       </c>
       <c r="C20" t="n">
-        <v>64.60425567626953</v>
+        <v>66.4925537109375</v>
       </c>
       <c r="D20" t="n">
-        <v>70.66149139404297</v>
+        <v>70.99185180664062</v>
       </c>
     </row>
     <row r="21">
@@ -1161,13 +1091,13 @@
         <v>2021</v>
       </c>
       <c r="B21" t="n">
-        <v>67.83081817626953</v>
+        <v>68.37379455566406</v>
       </c>
       <c r="C21" t="n">
-        <v>65.33898162841797</v>
+        <v>66.28360748291016</v>
       </c>
       <c r="D21" t="n">
-        <v>70.32265472412109</v>
+        <v>70.46398162841797</v>
       </c>
     </row>
   </sheetData>
@@ -1216,13 +1146,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>68.60735473632812</v>
+        <v>69.79668807983398</v>
       </c>
       <c r="C2" t="n">
-        <v>66.48758052521447</v>
+        <v>68.51419603498339</v>
       </c>
       <c r="D2" t="n">
-        <v>70.72712894744177</v>
+        <v>71.07918012468458</v>
       </c>
     </row>
     <row r="3">
@@ -1230,13 +1160,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>71.36097640991211</v>
+        <v>69.49580688476563</v>
       </c>
       <c r="C3" t="n">
-        <v>69.88865174098771</v>
+        <v>68.72832005748307</v>
       </c>
       <c r="D3" t="n">
-        <v>72.83330107883651</v>
+        <v>70.26329371204818</v>
       </c>
     </row>
     <row r="4">
@@ -1244,13 +1174,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>69.72574615478516</v>
+        <v>70.83432159423828</v>
       </c>
       <c r="C4" t="n">
-        <v>68.56671256543758</v>
+        <v>70.10901150563126</v>
       </c>
       <c r="D4" t="n">
-        <v>70.88477974413273</v>
+        <v>71.55963168284529</v>
       </c>
     </row>
     <row r="5">
@@ -1258,13 +1188,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>69.61865463256837</v>
+        <v>68.23918304443359</v>
       </c>
       <c r="C5" t="n">
-        <v>67.55168671215522</v>
+        <v>66.08233444481327</v>
       </c>
       <c r="D5" t="n">
-        <v>71.68562255298151</v>
+        <v>70.39603164405391</v>
       </c>
     </row>
     <row r="6">
@@ -1272,13 +1202,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>68.13362579345703</v>
+        <v>68.63065643310547</v>
       </c>
       <c r="C6" t="n">
-        <v>65.86296263301041</v>
+        <v>67.56436173859198</v>
       </c>
       <c r="D6" t="n">
-        <v>70.40428895390365</v>
+        <v>69.69695112761896</v>
       </c>
     </row>
   </sheetData>
